--- a/user-group.xlsx
+++ b/user-group.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,42 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">leandro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jira-users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fernanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanessa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">user1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user3</t>
   </si>
   <si>
     <t xml:space="preserve">username</t>
@@ -71,10 +53,7 @@
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">admin123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://localhost:8080</t>
+    <t xml:space="preserve">http://localhost:8080</t>
   </si>
 </sst>
 </file>
@@ -84,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,6 +84,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -156,12 +140,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,13 +170,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.61"/>
   </cols>
@@ -202,51 +190,35 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -267,40 +239,40 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://localhost:8080"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://localhost:8080"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
